--- a/tests/test_dfs_ssc.xlsx
+++ b/tests/test_dfs_ssc.xlsx
@@ -34,9 +34,6 @@
     <t>svbeit</t>
   </si>
   <si>
-    <t>kinderlos</t>
-  </si>
-  <si>
     <t>bemes</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>hid</t>
+  </si>
+  <si>
+    <t>haskids</t>
   </si>
 </sst>
 </file>
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,7 +428,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -440,43 +440,43 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Q1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R1" t="s">
         <v>4</v>
       </c>
       <c r="S1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
         <v>8</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>9</v>
-      </c>
-      <c r="U1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>42.967743749999997</v>
       </c>
       <c r="S3">
-        <f>0.01275*2*$Q3-(0.01275*$C3)+(0.0025*(G3=TRUE)*(E3&gt;=23)*Q3)</f>
+        <f>0.01275*2*$Q3-(0.01275*$C3)+(0.0025*(G3=FALSE)*(E3&gt;=23)*Q3)</f>
         <v>7.2182624999999989</v>
       </c>
       <c r="T3">
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>83.7</v>
       </c>
       <c r="S4">
-        <f>(0.01275 + (0.0025*(G4=TRUE)*(E4&gt;=23))) *C4</f>
+        <f>(0.01275 + (0.0025*(G4=FALSE)*(E4&gt;=23))) *C4</f>
         <v>13.725</v>
       </c>
       <c r="T4">
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>111.6</v>
       </c>
       <c r="S5">
-        <f>(0.01275 + (0.0025*(G5=TRUE)*(E5&gt;=23))) *C5</f>
+        <f>(0.01275 + (0.0025*(G5=FALSE)*(E5&gt;=23))) *C5</f>
         <v>15.299999999999999</v>
       </c>
       <c r="T5">
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>139.5</v>
       </c>
       <c r="S6">
-        <f>(0.01275 + (0.0025*(G6=TRUE)*(E6&gt;=23))) *C6</f>
+        <f>(0.01275 + (0.0025*(G6=FALSE)*(E6&gt;=23))) *C6</f>
         <v>19.125</v>
       </c>
       <c r="T6">
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>465</v>
       </c>
       <c r="S7">
-        <f>(0.01275 + (0.0025*(G7=TRUE)*(E7&gt;=23))) *4425</f>
+        <f>(0.01275 + (0.0025*(G7=FALSE)*(E7&gt;=23))) *4425</f>
         <v>56.418749999999996</v>
       </c>
       <c r="T7">
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -939,7 +939,7 @@
         <v>50.088300000000018</v>
       </c>
       <c r="S9">
-        <f>0.00975*2*$Q9-(0.00975*$C9)+(0.0025*(G9=TRUE)*(E9&gt;=23)*Q9)</f>
+        <f>0.00975*2*$Q9-(0.00975*$C9)+(0.0025*(G9=FALSE)*(E9&gt;=23)*Q9)</f>
         <v>4.9081500000000009</v>
       </c>
       <c r="T9">
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -999,7 +999,7 @@
         <v>89.550000000000011</v>
       </c>
       <c r="S10">
-        <f>(0.00975 + (0.0025*(G10=TRUE)*(E10&gt;=23))) *C10</f>
+        <f>(0.00975 + (0.0025*(G10=FALSE)*(E10&gt;=23))) *C10</f>
         <v>8.7750000000000004</v>
       </c>
       <c r="T10">
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>119.4</v>
       </c>
       <c r="S11">
-        <f>(0.00975 + (0.0025*(G11=TRUE)*(E11&gt;=23))) *C11</f>
+        <f>(0.00975 + (0.0025*(G11=FALSE)*(E11&gt;=23))) *C11</f>
         <v>11.7</v>
       </c>
       <c r="T11">
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>149.25</v>
       </c>
       <c r="S12">
-        <f>(0.00975 + (0.0025*(G12=TRUE)*(E12&gt;=23))) *C12</f>
+        <f>(0.00975 + (0.0025*(G12=FALSE)*(E12&gt;=23))) *C12</f>
         <v>14.625</v>
       </c>
       <c r="T12">
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>547.25</v>
       </c>
       <c r="S13">
-        <f>(0.00975 + (0.0025*(G13=TRUE)*(E13&gt;=23))) *3750</f>
+        <f>(0.00975 + (0.0025*(G13=FALSE)*(E13&gt;=23))) *3750</f>
         <v>36.5625</v>
       </c>
       <c r="T13">
